--- a/Recycling/Met_rec_tech/metrec_tech_Max_hist_Max.xlsx
+++ b/Recycling/Met_rec_tech/metrec_tech_Max_hist_Max.xlsx
@@ -137,7 +137,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.790641760249801E-14</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -690,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>3.228215958407231E-08</v>
+      </c>
+      <c r="E7">
         <v>1.69029289447031</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.401536792586915E-10</v>
-      </c>
-      <c r="F7">
-        <v>3.228215958407231E-08</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -706,10 +706,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.09008897666882376</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.70558660512575</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -805,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>277859.2387505087</v>
+      </c>
+      <c r="E7">
         <v>797536.5693350484</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>48818.25007767261</v>
-      </c>
-      <c r="F7">
-        <v>277859.2387505087</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -821,10 +821,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>42506.98421700131</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.4348847251982</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -920,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>341144.0515483537</v>
+      </c>
+      <c r="E7">
         <v>822125.2493334046</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>59774.10748486716</v>
-      </c>
-      <c r="F7">
-        <v>341144.0515483537</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -936,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>43817.50798831684</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.742841812639781E-13</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1035,13 +1035,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>5.60204460463813E-07</v>
+      </c>
+      <c r="E7">
         <v>3.633494668870312</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4.905427805715255E-09</v>
-      </c>
-      <c r="F7">
-        <v>5.60204460463813E-07</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1051,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.1936574528124793</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1121,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.274651152997573E-11</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1150,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>7.90826111835641E-06</v>
+      </c>
+      <c r="E7">
         <v>8.054988313173395</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8.075470686091104E-08</v>
-      </c>
-      <c r="F7">
-        <v>7.90826111835641E-06</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1166,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.4293135565954852</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.420931283617587E-10</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1265,13 +1265,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>7.659551873127618E-05</v>
+      </c>
+      <c r="E7">
         <v>14.89153298341969</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>9.002219078387696E-07</v>
-      </c>
-      <c r="F7">
-        <v>7.659551873127618E-05</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1281,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.7936866870204312</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.424956270749728E-09</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1380,13 +1380,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.000677027923356517</v>
+      </c>
+      <c r="E7">
         <v>29.63117209892168</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>9.027719126397743E-06</v>
-      </c>
-      <c r="F7">
-        <v>0.000677027923356517</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1396,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1.579277757495505</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.148163723885732E-08</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1495,13 +1495,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.004875683443043969</v>
+      </c>
+      <c r="E7">
         <v>55.32622785624832</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7.274117685664607E-05</v>
-      </c>
-      <c r="F7">
-        <v>0.004875683443043969</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1511,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2.948768977744249</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.585982751617055E-08</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1610,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.02531884566810291</v>
+      </c>
+      <c r="E7">
         <v>83.95308573068702</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0004172507162034977</v>
-      </c>
-      <c r="F7">
-        <v>0.02531884566810291</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1626,10 +1626,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4.474518946633643</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.931773696386847E-07</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1725,13 +1725,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.1384151761327229</v>
+      </c>
+      <c r="E7">
         <v>148.0706447579244</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.002490950026197207</v>
-      </c>
-      <c r="F7">
-        <v>0.1384151761327229</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1741,10 +1741,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7.891846971950133</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1811,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.129257256546735E-06</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.6934093212317836</v>
+      </c>
+      <c r="E7">
         <v>259.4307336848191</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.01348977288252817</v>
-      </c>
-      <c r="F7">
-        <v>0.6934093212317836</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1856,10 +1856,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>13.82710025615506</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.062751120725858E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1955,13 +1955,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>3.230026833401249</v>
+      </c>
+      <c r="E7">
         <v>451.428158685174</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.06732991612528259</v>
-      </c>
-      <c r="F7">
-        <v>3.230026833401249</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1971,10 +1971,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>24.06015016006036</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.380555408945863E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2185,13 +2185,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>12.52154151382194</v>
+      </c>
+      <c r="E7">
         <v>690.3604791787058</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.2775272803900057</v>
-      </c>
-      <c r="F7">
-        <v>12.52154151382194</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2201,10 +2201,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>36.79472907048941</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0001788041142451774</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2300,13 +2300,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>48.38436755770237</v>
+      </c>
+      <c r="E7">
         <v>1102.171499423538</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.132802006057703</v>
-      </c>
-      <c r="F7">
-        <v>48.38436755770237</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2316,10 +2316,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>58.7433709397006</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0006871425638119194</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2415,13 +2415,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>176.939045237292</v>
+      </c>
+      <c r="E7">
         <v>1734.531097467639</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4.353347673345106</v>
-      </c>
-      <c r="F7">
-        <v>176.939045237292</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2431,10 +2431,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>92.44677776396824</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.00211936214171573</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2530,13 +2530,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>520.8225644306132</v>
+      </c>
+      <c r="E7">
         <v>2283.620851318896</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>13.42708301670459</v>
-      </c>
-      <c r="F7">
-        <v>520.8225644306132</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2546,10 +2546,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>121.7120809464073</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.007054560218758101</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2645,13 +2645,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1651.031418537667</v>
+      </c>
+      <c r="E7">
         <v>3379.758374693044</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>44.69371413180211</v>
-      </c>
-      <c r="F7">
-        <v>1651.031418537667</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2661,10 +2661,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>180.1338539374258</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0212797471913334</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2760,13 +2760,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>4676.834044413787</v>
+      </c>
+      <c r="E7">
         <v>4755.602528889584</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>134.8164744894477</v>
-      </c>
-      <c r="F7">
-        <v>4676.834044413787</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2776,10 +2776,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>253.4633889031345</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.05831554666286547</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2875,13 +2875,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>11547.96977051422</v>
+      </c>
+      <c r="E7">
         <v>6542.406483567293</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>369.4544083782306</v>
-      </c>
-      <c r="F7">
-        <v>11547.96977051422</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2891,10 +2891,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>348.6961975550138</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1362921084583646</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2990,13 +2990,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>22236.27151902431</v>
+      </c>
+      <c r="E7">
         <v>8811.097821335632</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>863.4699180342473</v>
-      </c>
-      <c r="F7">
-        <v>22236.27151902431</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3006,10 +3006,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>469.6125675318413</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.2386073088222896</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3105,13 +3105,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>29207.84937075579</v>
+      </c>
+      <c r="E7">
         <v>11629.22031022888</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1511.681312451733</v>
-      </c>
-      <c r="F7">
-        <v>29207.84937075579</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3121,10 +3121,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>619.8124364316928</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.2579755594979836</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3220,13 +3220,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>28467.84539078882</v>
+      </c>
+      <c r="E7">
         <v>15055.36741340219</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1634.387623276159</v>
-      </c>
-      <c r="F7">
-        <v>28467.84539078882</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3236,10 +3236,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>802.4187098482669</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>3.708767356744974E-06</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1.976693252186903E-07</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1593429158454633</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3450,13 +3450,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>27655.74470723482</v>
+      </c>
+      <c r="E7">
         <v>19133.30899432212</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1009.506830884866</v>
-      </c>
-      <c r="F7">
-        <v>27655.74470723482</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3466,10 +3466,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1019.764227386781</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3536,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1024007481273072</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3565,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>29172.15970322966</v>
+      </c>
+      <c r="E7">
         <v>23886.92578832793</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>648.7533767895492</v>
-      </c>
-      <c r="F7">
-        <v>29172.15970322966</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3581,10 +3581,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1273.1217808905</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3651,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.158616665663515</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3680,13 +3680,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>30988.38898456839</v>
+      </c>
+      <c r="E7">
         <v>29316.90520674158</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1004.905719403266</v>
-      </c>
-      <c r="F7">
-        <v>30988.38898456839</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3696,10 +3696,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1562.528007904757</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.2414398226810691</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3795,13 +3795,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>32604.11549032723</v>
+      </c>
+      <c r="E7">
         <v>35400.7657954209</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1529.626522465257</v>
-      </c>
-      <c r="F7">
-        <v>32604.11549032723</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3811,10 +3811,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1886.784695265241</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.3366287869958432</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3910,13 +3910,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>33813.75778524591</v>
+      </c>
+      <c r="E7">
         <v>42098.61883633827</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2132.690105121267</v>
-      </c>
-      <c r="F7">
-        <v>33813.75778524591</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3926,10 +3926,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2243.765860073076</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.4723890130451858</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4025,13 +4025,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>36372.08182394024</v>
+      </c>
+      <c r="E7">
         <v>49367.79338872461</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2992.790316242054</v>
-      </c>
-      <c r="F7">
-        <v>36372.08182394024</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4041,10 +4041,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2631.197232939822</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.5794568132053876</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4140,13 +4140,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37498.00643836133</v>
+      </c>
+      <c r="E7">
         <v>57189.79153717997</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3671.111502069762</v>
-      </c>
-      <c r="F7">
-        <v>37498.00643836133</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4156,10 +4156,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3048.092914750403</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4226,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.6671317326290823</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4255,13 +4255,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>36617.64510777804</v>
+      </c>
+      <c r="E7">
         <v>65612.47786975835</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4226.570334901332</v>
-      </c>
-      <c r="F7">
-        <v>36617.64510777804</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4271,10 +4271,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3497.003985125728</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4341,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.987370415252987</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4370,13 +4370,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37307.09783568498</v>
+      </c>
+      <c r="E7">
         <v>74808.24893207719</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6255.421984233108</v>
-      </c>
-      <c r="F7">
-        <v>37307.09783568498</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4386,10 +4386,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3987.118809246014</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4456,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.631110566014568</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4485,13 +4485,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37555.49497772253</v>
+      </c>
+      <c r="E7">
         <v>85144.55459372049</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>10333.79645140382</v>
-      </c>
-      <c r="F7">
-        <v>37555.49497772253</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4501,10 +4501,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4538.021675039236</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4600,10 +4600,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.0002714932662646493</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1.447000730481291E-05</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4686,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.390955353428704</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4715,13 +4715,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>38569.53196502037</v>
+      </c>
+      <c r="E7">
         <v>97256.25043163683</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>15147.74440281925</v>
-      </c>
-      <c r="F7">
-        <v>38569.53196502037</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4731,10 +4731,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5183.549019638211</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4801,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.208981147361022</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4830,13 +4830,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>40437.72279863406</v>
+      </c>
+      <c r="E7">
         <v>112102.5577653107</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>20330.29439214909</v>
-      </c>
-      <c r="F7">
-        <v>40437.72279863406</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4846,10 +4846,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5974.825276775095</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4916,10 +4916,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.353247494355543</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4945,13 +4945,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>40207.21137631391</v>
+      </c>
+      <c r="E7">
         <v>130987.1444164775</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>21244.28458735187</v>
-      </c>
-      <c r="F7">
-        <v>40207.21137631391</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4961,10 +4961,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6981.333138094881</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.907853394074093</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5060,13 +5060,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37667.35606470206</v>
+      </c>
+      <c r="E7">
         <v>155519.8114857066</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>18422.51881079228</v>
-      </c>
-      <c r="F7">
-        <v>37667.35606470206</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5076,10 +5076,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>8288.871540731539</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.817441983874472</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5175,13 +5175,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>33925.52939891469</v>
+      </c>
+      <c r="E7">
         <v>187505.5463360962</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17849.72311603438</v>
-      </c>
-      <c r="F7">
-        <v>33925.52939891469</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5191,10 +5191,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>9993.642429906296</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.600631761507705</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5290,13 +5290,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>33581.59281059708</v>
+      </c>
+      <c r="E7">
         <v>228761.2033403381</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>16476.13584782356</v>
-      </c>
-      <c r="F7">
-        <v>33581.59281059708</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5306,10 +5306,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>12192.48023693433</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.283281903815042</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5405,13 +5405,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>39159.63382247838</v>
+      </c>
+      <c r="E7">
         <v>280877.8742270285</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>14465.58616369585</v>
-      </c>
-      <c r="F7">
-        <v>39159.63382247838</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5421,10 +5421,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>14970.18672965382</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.972056546019112</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5520,13 +5520,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>53614.79755200738</v>
+      </c>
+      <c r="E7">
         <v>344960.8536592518</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>12493.8378561383</v>
-      </c>
-      <c r="F7">
-        <v>53614.79755200738</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5536,10 +5536,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>18385.67173691195</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5606,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.249794589304723</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5635,13 +5635,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>83503.42214338317</v>
+      </c>
+      <c r="E7">
         <v>421382.4651681012</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>14253.42942885273</v>
-      </c>
-      <c r="F7">
-        <v>83503.42214338317</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5651,10 +5651,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>22458.77930231535</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5721,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.508086169044589</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5750,13 +5750,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>128188.8121952324</v>
+      </c>
+      <c r="E7">
         <v>509575.5496682255</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>22225.25508707178</v>
-      </c>
-      <c r="F7">
-        <v>128188.8121952324</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5766,10 +5766,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>27159.28106616682</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5865,10 +5865,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.003274965499510374</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.0001745486190244262</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5951,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.998522472818574</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5980,13 +5980,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>180548.0424365879</v>
+      </c>
+      <c r="E7">
         <v>607884.2484440032</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>31667.81876601092</v>
-      </c>
-      <c r="F7">
-        <v>180548.0424365879</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5996,10 +5996,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>32398.92331948697</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6066,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.988580013841825</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6095,13 +6095,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>253955.556416613</v>
+      </c>
+      <c r="E7">
         <v>713484.1212304643</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>44275.70077229536</v>
-      </c>
-      <c r="F7">
-        <v>253955.556416613</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6111,10 +6111,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>38027.16946949608</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6181,10 +6181,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.949183485979502</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6210,13 +6210,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>361699.7363706334</v>
+      </c>
+      <c r="E7">
         <v>822390.6750227568</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>63032.41432185181</v>
-      </c>
-      <c r="F7">
-        <v>361699.7363706334</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6226,10 +6226,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>43831.65460681923</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.01477427696766</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6325,13 +6325,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>436780.2965960854</v>
+      </c>
+      <c r="E7">
         <v>929587.9498032015</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76118.83239228395</v>
-      </c>
-      <c r="F7">
-        <v>436780.2965960854</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6341,10 +6341,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>49545.03884824282</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6411,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.26515399970726</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6440,13 +6440,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>446978.3427590959</v>
+      </c>
+      <c r="E7">
         <v>1029312.334736994</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>77705.09707860254</v>
-      </c>
-      <c r="F7">
-        <v>446978.3427590959</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6456,10 +6456,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>54860.13412966066</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.11175575106255</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6555,13 +6555,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>443018.7882108056</v>
+      </c>
+      <c r="E7">
         <v>1115508.40321655</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76733.25230576808</v>
-      </c>
-      <c r="F7">
-        <v>443018.7882108056</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6571,10 +6571,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>59454.19923376352</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6641,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.80329529611181</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6670,13 +6670,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>433841.2939433716</v>
+      </c>
+      <c r="E7">
         <v>1182431.985770609</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>74779.02086298073</v>
-      </c>
-      <c r="F7">
-        <v>433841.2939433716</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6686,10 +6686,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>63021.0822793176</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.36496981151403</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6785,13 +6785,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>418889.1247158627</v>
+      </c>
+      <c r="E7">
         <v>1225323.612126197</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>72002.03784805007</v>
-      </c>
-      <c r="F7">
-        <v>418889.1247158627</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6801,10 +6801,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>65307.1137349769</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6871,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.02499094564371</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6900,13 +6900,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>405846.2876601489</v>
+      </c>
+      <c r="E7">
         <v>1241033.858710939</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>69848.12353292959</v>
-      </c>
-      <c r="F7">
-        <v>405846.2876601489</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6916,10 +6916,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>66144.43609648263</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6986,10 +6986,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.74451251125484</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7015,13 +7015,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>393951.7430860354</v>
+      </c>
+      <c r="E7">
         <v>1228471.343774883</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>68071.17038801496</v>
-      </c>
-      <c r="F7">
-        <v>393951.7430860354</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7031,10 +7031,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>65474.88106334105</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7130,10 +7130,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.0180646548097194</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7146,10 +7146,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.00096280725725535</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7216,10 +7216,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.941083953115214</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7245,13 +7245,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>363032.4372678344</v>
+      </c>
+      <c r="E7">
         <v>1188774.777156244</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>62981.10025049766</v>
-      </c>
-      <c r="F7">
-        <v>363032.4372678344</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7261,10 +7261,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>63359.13942138162</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7331,10 +7331,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.98247339092327</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7360,13 +7360,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>290449.1375002923</v>
+      </c>
+      <c r="E7">
         <v>1125177.603417076</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>50572.4485631292</v>
-      </c>
-      <c r="F7">
-        <v>290449.1375002923</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7376,10 +7376,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>59969.54681294407</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.899922724683337</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7475,13 +7475,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>175653.7249252126</v>
+      </c>
+      <c r="E7">
         <v>1042615.052381714</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>31043.14638106106</v>
-      </c>
-      <c r="F7">
-        <v>175653.7249252126</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7491,10 +7491,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>55569.14037552945</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7561,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.954984834418105</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7590,13 +7590,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>95095.17826510296</v>
+      </c>
+      <c r="E7">
         <v>947184.9037515535</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>18721.11703038849</v>
-      </c>
-      <c r="F7">
-        <v>95095.17826510296</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7606,10 +7606,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>50482.91865527607</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7676,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.135886040812135</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7705,13 +7705,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>82743.10545185885</v>
+      </c>
+      <c r="E7">
         <v>845584.9768473319</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19867.20502935041</v>
-      </c>
-      <c r="F7">
-        <v>82743.10545185885</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7721,10 +7721,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>45067.86101977856</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.61777124619658</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7820,13 +7820,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>78999.8350615271</v>
+      </c>
+      <c r="E7">
         <v>744606.1372820939</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>22920.15786353694</v>
-      </c>
-      <c r="F7">
-        <v>78999.8350615271</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7836,10 +7836,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>39685.90600393594</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7906,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.803817212392066</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7935,13 +7935,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>69552.72631638192</v>
+      </c>
+      <c r="E7">
         <v>650688.7196364012</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>24098.84015848797</v>
-      </c>
-      <c r="F7">
-        <v>69552.72631638192</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7951,10 +7951,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>34680.3095923564</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.510352370857828</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8050,13 +8050,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>53610.14728389653</v>
+      </c>
+      <c r="E7">
         <v>569504.7444104928</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>22239.61246341631</v>
-      </c>
-      <c r="F7">
-        <v>53610.14728389653</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8066,10 +8066,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>30353.37828125889</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.051432277953738</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8165,13 +8165,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>41541.39676957183</v>
+      </c>
+      <c r="E7">
         <v>505545.7149139245</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19332.15362749099</v>
-      </c>
-      <c r="F7">
-        <v>41541.39676957183</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8181,10 +8181,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>26944.49953904386</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8251,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.792427775109692</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8280,13 +8280,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>39687.02808269229</v>
+      </c>
+      <c r="E7">
         <v>461764.034444981</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17691.24719959191</v>
-      </c>
-      <c r="F7">
-        <v>39687.02808269229</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8296,10 +8296,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>24611.03011301012</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8395,10 +8395,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.07077618748561523</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8411,10 +8411,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.003772218604218882</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8481,10 +8481,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.612297633301142</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8510,13 +8510,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>43152.18136833811</v>
+      </c>
+      <c r="E7">
         <v>439376.1249947319</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>16550.04423089296</v>
-      </c>
-      <c r="F7">
-        <v>43152.18136833811</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8526,10 +8526,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>23417.80267963131</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8596,10 +8596,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.478540492564892</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8625,13 +8625,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>53690.4408102419</v>
+      </c>
+      <c r="E7">
         <v>437926.6122073816</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>15702.63443839343</v>
-      </c>
-      <c r="F7">
-        <v>53690.4408102419</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8641,10 +8641,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>23340.54676492685</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8711,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.561913761844441</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8740,13 +8740,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>74366.7168115758</v>
+      </c>
+      <c r="E7">
         <v>455624.2527750924</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>16230.84044243402</v>
-      </c>
-      <c r="F7">
-        <v>74366.7168115758</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8756,10 +8756,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>24283.79295226727</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8826,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.113745340414539</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8855,13 +8855,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>107803.4769211634</v>
+      </c>
+      <c r="E7">
         <v>489842.6274094426</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19726.93404100208</v>
-      </c>
-      <c r="F7">
-        <v>107803.4769211634</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8871,10 +8871,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>26107.55874112191</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.268073414104655</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8970,13 +8970,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>154809.4365034146</v>
+      </c>
+      <c r="E7">
         <v>537609.8433751129</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27040.10556977274</v>
-      </c>
-      <c r="F7">
-        <v>154809.4365034146</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8986,10 +8986,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>28653.44863910581</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9056,10 +9056,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.912440629095464</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9085,13 +9085,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>214648.4821114101</v>
+      </c>
+      <c r="E7">
         <v>595938.7682711212</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>37457.88867113303</v>
-      </c>
-      <c r="F7">
-        <v>214648.4821114101</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9101,10 +9101,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>31762.25491242377</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9171,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.878606038940288</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9200,13 +9200,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>286110.6724036833</v>
+      </c>
+      <c r="E7">
         <v>661952.2847015853</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>49914.40361160821</v>
-      </c>
-      <c r="F7">
-        <v>286110.6724036833</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9216,10 +9216,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>35280.63339048911</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9286,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.919666301390958</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9315,13 +9315,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>360733.6031520475</v>
+      </c>
+      <c r="E7">
         <v>732863.901105199</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>62845.41009067834</v>
-      </c>
-      <c r="F7">
-        <v>360733.6031520475</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9331,10 +9331,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>39060.07006482693</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.45596306002187</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9430,13 +9430,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>417116.5764974406</v>
+      </c>
+      <c r="E7">
         <v>805916.5454800624</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>72578.51974211905</v>
-      </c>
-      <c r="F7">
-        <v>417116.5764974406</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9446,10 +9446,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>42953.61892621841</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9516,10 +9516,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.08001437824204</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9545,13 +9545,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>440731.7025633911</v>
+      </c>
+      <c r="E7">
         <v>878353.3048754868</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76532.15687260152</v>
-      </c>
-      <c r="F7">
-        <v>440731.7025633911</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9561,10 +9561,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>46814.34244253215</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9631,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.881885993737427E-17</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9660,13 +9660,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2.557813766296087E-11</v>
+      </c>
+      <c r="E7">
         <v>0.2443920595415579</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.192256810128265E-13</v>
-      </c>
-      <c r="F7">
-        <v>2.557813766296087E-11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9676,10 +9676,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.01302557126171006</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.08391969853255</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9775,13 +9775,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>442101.4285876258</v>
+      </c>
+      <c r="E7">
         <v>947438.7145311824</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76556.89877900601</v>
-      </c>
-      <c r="F7">
-        <v>442101.4285876258</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9791,10 +9791,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>50496.44622406552</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9861,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.94474089379971</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9890,13 +9890,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>437978.1296787197</v>
+      </c>
+      <c r="E7">
         <v>1010516.498596209</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>75675.14038173614</v>
-      </c>
-      <c r="F7">
-        <v>437978.1296787197</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9906,10 +9906,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>53858.35647970559</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9976,10 +9976,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.90250547756975</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10005,13 +10005,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>436318.7767241955</v>
+      </c>
+      <c r="E7">
         <v>1065090.492208102</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>75407.5606091232</v>
-      </c>
-      <c r="F7">
-        <v>436318.7767241955</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10021,10 +10021,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>56767.03298974146</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10091,10 +10091,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.97266843678266</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10120,13 +10120,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>437323.7789730365</v>
+      </c>
+      <c r="E7">
         <v>1108928.790271775</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>75852.07354039921</v>
-      </c>
-      <c r="F7">
-        <v>437323.7789730365</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10136,10 +10136,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>59103.52001183053</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.66010836367035</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10235,13 +10235,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>423768.0976240766</v>
+      </c>
+      <c r="E7">
         <v>1140195.265997833</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>73871.86922949804</v>
-      </c>
-      <c r="F7">
-        <v>423768.0976240766</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10251,10 +10251,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>60769.95593628838</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.53298527983774</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10350,13 +10350,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>380442.0565302952</v>
+      </c>
+      <c r="E7">
         <v>1157603.436784365</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>66731.05317037339</v>
-      </c>
-      <c r="F7">
-        <v>380442.0565302952</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10366,10 +10366,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>61697.77400673363</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.739384704473439</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10465,13 +10465,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>311773.1802208454</v>
+      </c>
+      <c r="E7">
         <v>1160573.359350403</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>55367.81167888888</v>
-      </c>
-      <c r="F7">
-        <v>311773.1802208454</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10481,10 +10481,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>61856.06449333231</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10551,10 +10551,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.697832600515951</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10580,13 +10580,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>231294.9108507268</v>
+      </c>
+      <c r="E7">
         <v>1149360.890606688</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>42433.68916947497</v>
-      </c>
-      <c r="F7">
-        <v>231294.9108507268</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10596,10 +10596,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>61258.46401926244</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10666,10 +10666,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.243586239420726</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10695,13 +10695,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>167447.0930753064</v>
+      </c>
+      <c r="E7">
         <v>1125124.189866907</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33220.40455292584</v>
-      </c>
-      <c r="F7">
-        <v>167447.0930753064</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10711,10 +10711,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>59966.69998557426</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.822242221497262</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10810,13 +10810,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>136658.2485526558</v>
+      </c>
+      <c r="E7">
         <v>1089897.016586346</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30551.00653175036</v>
-      </c>
-      <c r="F7">
-        <v>136658.2485526558</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10826,10 +10826,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>58089.16739807821</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.25401791229635E-15</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10925,13 +10925,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.262722617829247E-09</v>
+      </c>
+      <c r="E7">
         <v>0.7218529132897333</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7.944750112034471E-12</v>
-      </c>
-      <c r="F7">
-        <v>1.262722617829247E-09</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10941,10 +10941,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.0384732080909919</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11011,10 +11011,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.940536037051313</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11040,13 +11040,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>124835.3272882251</v>
+      </c>
+      <c r="E7">
         <v>1046453.825699329</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>31300.44941861874</v>
-      </c>
-      <c r="F7">
-        <v>124835.3272882251</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11056,10 +11056,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>55773.73873891305</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11126,10 +11126,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.96454043652091</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11155,13 +11155,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>114062.3100941234</v>
+      </c>
+      <c r="E7">
         <v>998076.2628291161</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>31452.52775299131</v>
-      </c>
-      <c r="F7">
-        <v>114062.3100941234</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11171,10 +11171,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>53195.31866333502</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11241,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.724175522710858</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11270,13 +11270,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>101317.6484454652</v>
+      </c>
+      <c r="E7">
         <v>948257.000506547</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>29929.71124678635</v>
-      </c>
-      <c r="F7">
-        <v>101317.6484454652</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11286,10 +11286,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>50540.05910700682</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11356,10 +11356,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.377061206934409</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11385,13 +11385,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>92029.7323494499</v>
+      </c>
+      <c r="E7">
         <v>900393.6560329814</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27730.59074610406</v>
-      </c>
-      <c r="F7">
-        <v>92029.7323494499</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11401,10 +11401,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>47989.04576625548</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11471,10 +11471,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.117032875360604</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11500,13 +11500,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>90723.34523574589</v>
+      </c>
+      <c r="E7">
         <v>857524.2498803169</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>26083.19791690584</v>
-      </c>
-      <c r="F7">
-        <v>90723.34523574589</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11516,10 +11516,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>45704.19859963235</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11586,10 +11586,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.982932567442407</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11615,13 +11615,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>97056.69169916279</v>
+      </c>
+      <c r="E7">
         <v>822137.0156794856</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25233.61401071904</v>
-      </c>
-      <c r="F7">
-        <v>97056.69169916279</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11631,10 +11631,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>43818.13510926199</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11701,10 +11701,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.996368580727456</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11730,13 +11730,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>111078.2551727665</v>
+      </c>
+      <c r="E7">
         <v>796061.8092926615</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25318.73701175832</v>
-      </c>
-      <c r="F7">
-        <v>111078.2551727665</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11746,10 +11746,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>42428.3826778921</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.265826122519686</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11845,13 +11845,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>134667.1678208656</v>
+      </c>
+      <c r="E7">
         <v>780430.9082940607</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27025.86799796743</v>
-      </c>
-      <c r="F7">
-        <v>134667.1678208656</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11861,10 +11861,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>41595.28926551227</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11931,10 +11931,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.958391641241821</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11960,13 +11960,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>170519.0698885047</v>
+      </c>
+      <c r="E7">
         <v>775690.3061683789</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>31413.57245458335</v>
-      </c>
-      <c r="F7">
-        <v>170519.0698885047</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11976,10 +11976,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>41342.62536584503</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -12046,10 +12046,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.142340987836632</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12075,13 +12075,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>219229.9741386759</v>
+      </c>
+      <c r="E7">
         <v>781646.0631600171</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>38914.40765938337</v>
-      </c>
-      <c r="F7">
-        <v>219229.9741386759</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -12091,10 +12091,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>41660.05440694208</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
